--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.984</v>
+        <v>-7.824999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>13.218</v>
+        <v>12.967</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.424</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.592000000000001</v>
+        <v>-8.016</v>
       </c>
       <c r="E8" t="n">
-        <v>12.972</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="9">
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-13.285</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.482000000000001</v>
+        <v>-7.846999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.284000000000001</v>
+        <v>-8.263</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.554</v>
+        <v>12.452</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.844</v>
+        <v>13.252</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.984</v>
+        <v>-8.191999999999998</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.714</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="25">
